--- a/gantt.xlsx
+++ b/gantt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saims\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simone\Documents\group3proj1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119D5E08-7071-4D8C-ACDA-8305A73562F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3519D35-63B8-49C0-A0E7-F6E88DB2162F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10850" yWindow="-10910" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -1031,19 +1031,19 @@
   <dimension ref="B1:BO30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AB12" sqref="AB12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
-    <col min="3" max="6" width="11.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.58203125" customWidth="1"/>
+    <col min="2" max="2" width="15.58203125" style="2" customWidth="1"/>
+    <col min="3" max="6" width="11.58203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.58203125" style="4" customWidth="1"/>
     <col min="8" max="27" width="2.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="1.25">
       <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1053,7 +1053,7 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="24" t="s">
         <v>13</v>
       </c>
@@ -1111,7 +1111,7 @@
       <c r="AO2" s="23"/>
       <c r="AP2" s="23"/>
     </row>
-    <row r="3" spans="2:67" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:67" s="12" customFormat="1" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="25" t="s">
         <v>14</v>
       </c>
@@ -1153,7 +1153,7 @@
       <c r="Z3" s="11"/>
       <c r="AA3" s="11"/>
     </row>
-    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="26"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -1341,7 +1341,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
@@ -1429,19 +1429,19 @@
         <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" s="7">
         <v>4</v>
       </c>
       <c r="F9" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G9" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
@@ -1455,53 +1455,53 @@
         <v>4</v>
       </c>
       <c r="F10" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G10" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" s="7">
         <v>5</v>
       </c>
       <c r="F11" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" s="7">
         <v>5</v>
       </c>
       <c r="F12" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G12" s="8">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="6" t="s">
         <v>23</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="6" t="s">
         <v>24</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="6" t="s">
         <v>25</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="6" t="s">
         <v>26</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="6" t="s">
         <v>27</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="6" t="s">
         <v>28</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="6" t="s">
         <v>29</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="6" t="s">
         <v>30</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="6" t="s">
         <v>31</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="6" t="s">
         <v>31</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="6" t="s">
         <v>31</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="6" t="s">
         <v>31</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="6" t="s">
         <v>31</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="6" t="s">
         <v>31</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="6" t="s">
         <v>31</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="6" t="s">
         <v>31</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="6" t="s">
         <v>31</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="6" t="s">
         <v>31</v>
       </c>
